--- a/src/main/resources/templates/bankflowdataimportTemplate.xlsx
+++ b/src/main/resources/templates/bankflowdataimportTemplate.xlsx
@@ -579,7 +579,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -736,7 +736,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="23">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入币种" sqref="J1:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入币种代码" sqref="J1:J1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入银行备注" sqref="N1:N1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入序号，不能重复" sqref="A1:A1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入公司代码" sqref="B1:B1048576"/>
